--- a/IRP0.xlsx
+++ b/IRP0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pato2\Desktop\U\2023-2\IPRE-IRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8ED2EC-99BD-47BC-92D0-FD61BCB2AFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02199A6F-504D-4844-A7D7-0A9B24D27409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,10 +636,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>0.23</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>0.32</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>0.33</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>0.23</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>0.18</v>
@@ -866,6 +866,18 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
